--- a/Resources/StreamLine App Automator Resources/Actions and Keywords Dictionary.xlsx
+++ b/Resources/StreamLine App Automator Resources/Actions and Keywords Dictionary.xlsx
@@ -5,17 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\StreamLineQA-Automation-Test\Resources\StreamLine Web Automator Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\StreamLineQA-Automation-Test\Resources\StreamLine App Automator Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E8B5260-1D8E-4D45-9F15-7E0E012DE609}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1A1EE1-517E-458F-A7DF-137C51DC99AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Word Bank" sheetId="1" r:id="rId1"/>
-    <sheet name="Dictionary" sheetId="2" r:id="rId2"/>
-    <sheet name="Other Important Values" sheetId="3" r:id="rId3"/>
+    <sheet name="App Word Bank" sheetId="6" r:id="rId1"/>
+    <sheet name="App Dictionary" sheetId="7" r:id="rId2"/>
+    <sheet name="Web Word Bank" sheetId="1" r:id="rId3"/>
+    <sheet name="Web Dictionary" sheetId="2" r:id="rId4"/>
+    <sheet name="Other Important Values" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -294,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="274">
   <si>
     <t>Compare</t>
   </si>
@@ -1087,12 +1089,87 @@
   <si>
     <t>expected text in the result url</t>
   </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>start android activity</t>
+  </si>
+  <si>
+    <t>Screen Interaction</t>
+  </si>
+  <si>
+    <t>tap element</t>
+  </si>
+  <si>
+    <t>tap position</t>
+  </si>
+  <si>
+    <t>long press element</t>
+  </si>
+  <si>
+    <t>long press position</t>
+  </si>
+  <si>
+    <t>swipe horizontal</t>
+  </si>
+  <si>
+    <t>swipe vertical</t>
+  </si>
+  <si>
+    <t>Scroll and Rotate</t>
+  </si>
+  <si>
+    <t>rotate to portrait</t>
+  </si>
+  <si>
+    <t>rotate to landscape</t>
+  </si>
+  <si>
+    <t>scroll by offset mobile</t>
+  </si>
+  <si>
+    <t>scroll to element mobile</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>Enter tap duration as an integer in expected value cell (milliseconds)</t>
+  </si>
+  <si>
+    <t>(x, y), milliseconds</t>
+  </si>
+  <si>
+    <t>Enter x-position of tap, y-position of tap, and tap duration in the shown format</t>
+  </si>
+  <si>
+    <t>Enter long press duration as an integer in expected value cell (seconds)</t>
+  </si>
+  <si>
+    <t>(x, y), seconds</t>
+  </si>
+  <si>
+    <t>Enter x-position of tap, y-position of tap, and long press duration in the shown format</t>
+  </si>
+  <si>
+    <t>(offset, duration)</t>
+  </si>
+  <si>
+    <t>Swipe horizontal from the current element. Swipe offset = num pixels (left should be negative and right should be positive). Duration = # of milliseconds</t>
+  </si>
+  <si>
+    <t>Swipe vertical from the current element. Swipe offset = num pixels (left should be negative and right should be positive). Duration = # of milliseconds</t>
+  </si>
+  <si>
+    <t>(appPackage | appActivity)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1169,8 +1246,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1195,8 +1278,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1315,11 +1404,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1373,11 +1477,179 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF999999"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF999999"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF999999"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF999999"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF999999"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF999999"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF999999"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF999999"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF999999"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF999999"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF999999"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF999999"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF999999"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF999999"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF999999"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF999999"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor theme="1" tint="0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF999999"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF999999"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1557,12 +1829,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EEC6C929-C42E-40EE-ACD4-C5CF696595EB}" name="Table2" displayName="Table2" ref="A1:C91" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C91" xr:uid="{3A8196F3-CE1F-4FAC-85FE-2F51495F7BFB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48403383-F6DC-4D89-A5A4-66B81BDE8ACE}" name="Table22" displayName="Table22" ref="A1:C12" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C12" xr:uid="{3A8196F3-CE1F-4FAC-85FE-2F51495F7BFB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{44C580A7-5B9F-4D42-AD3F-632EC8723878}" name="Action / Keyword" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{419EB3E1-9F00-49BC-9078-7F878531B4EC}" name="Expected" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{9AAE3F98-51E3-48B6-98DA-A796DCCB0687}" name="Notes" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{53B441B0-7F96-4D15-94E5-D0F4955A91CD}" name="Action / Keyword" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{CE3C4030-1E8E-434B-9EB2-DB08AFA615A5}" name="Expected" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{67687FCD-F7A4-4C3B-AC6A-561EC47CF524}" name="Notes" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EEC6C929-C42E-40EE-ACD4-C5CF696595EB}" name="Table2" displayName="Table2" ref="A1:C90" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+  <autoFilter ref="A1:C90" xr:uid="{3A8196F3-CE1F-4FAC-85FE-2F51495F7BFB}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{44C580A7-5B9F-4D42-AD3F-632EC8723878}" name="Action / Keyword" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{419EB3E1-9F00-49BC-9078-7F878531B4EC}" name="Expected" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{9AAE3F98-51E3-48B6-98DA-A796DCCB0687}" name="Notes" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1765,13 +2049,256 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F817A9A-DCD7-4851-BC14-69E18B51A37E}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:Z15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="45" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="46" t="s">
+        <v>250</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="47"/>
+      <c r="B3" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="47"/>
+      <c r="B4" s="46" t="s">
+        <v>254</v>
+      </c>
+      <c r="C4" s="46"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="47"/>
+      <c r="B5" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="47"/>
+      <c r="B6" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="47"/>
+      <c r="B7" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="C7" s="46"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="5"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CDB49E-ADA4-4894-8CCD-9D888A0E9D35}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:Y12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" customWidth="1"/>
+    <col min="3" max="3" width="137.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="42" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
+        <v>253</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
+        <v>256</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="30"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
+        <v>260</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="30"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="30"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="C12" s="42"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AA18" sqref="AA18"/>
     </sheetView>
@@ -2190,16 +2717,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y91"/>
+  <dimension ref="A1:Y90"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86:XFD86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3084,60 +3611,51 @@
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="34" t="s">
-        <v>234</v>
-      </c>
-      <c r="B86" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C86" s="42"/>
+      <c r="A86" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="B86" s="11"/>
+      <c r="C86" s="30" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="29" t="s">
-        <v>238</v>
-      </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="30" t="s">
-        <v>239</v>
+      <c r="A87" s="34" t="s">
+        <v>240</v>
+      </c>
+      <c r="B87" s="41"/>
+      <c r="C87" s="42" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="34" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B88" s="41"/>
       <c r="C88" s="42" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="B89" s="41"/>
-      <c r="C89" s="42" t="s">
-        <v>245</v>
+      <c r="A89" s="29" t="s">
+        <v>246</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="29" t="s">
-        <v>246</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="29" t="s">
         <v>247</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B90" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C91" s="42"/>
+      <c r="C90" s="42"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3152,7 +3670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>

--- a/Resources/StreamLine App Automator Resources/Actions and Keywords Dictionary.xlsx
+++ b/Resources/StreamLine App Automator Resources/Actions and Keywords Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\StreamLineQA-Automation-Test\Resources\StreamLine App Automator Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1A1EE1-517E-458F-A7DF-137C51DC99AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6E7F3C-C122-4845-84F4-D25D83BB2F38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="App Word Bank" sheetId="6" r:id="rId1"/>
@@ -27,9 +27,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
+    <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000014000000}">
       <text>
         <r>
           <rPr>
@@ -42,7 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
+    <comment ref="D5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -55,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
+    <comment ref="F5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000013000000}">
       <text>
         <r>
           <rPr>
@@ -64,11 +65,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>Only run if the specified viewport from the config file is considered a desktop viewport. If test type does not contain D, T or M, we'll default to D</t>
+          <t>Only run on Android devices and emulators</t>
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000A000000}">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{923A352F-A04F-4806-A3B9-366EFD0F08C9}">
       <text>
         <r>
           <rPr>
@@ -81,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
+    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000012000000}">
       <text>
         <r>
           <rPr>
@@ -90,11 +91,51 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>Only run if the specified viewport from the config file is considered a tablet viewport</t>
+          <t>Only run on iOS devices and simulators</t>
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+    <comment ref="D7" authorId="1" shapeId="0" xr:uid="{9ACDE58C-8D30-40B9-B393-0E102934EE27}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Use ai to find common elements.
+Example input: search icon</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="1" shapeId="0" xr:uid="{7CBF4A6C-BEF9-4C69-B449-C61F2D50E60E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Only run on Windows applications</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>onlyRunMobile will only run tests with this m label</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
       <text>
         <r>
           <rPr>
@@ -107,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000011000000}">
+    <comment ref="F9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
       <text>
         <r>
           <rPr>
@@ -116,24 +157,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>Only run if the specified viewport from the config file is considered a mobile viewport</t>
+          <t>Regression - only run if the config file specifies Regression.  If test type does not include R, S or F, we'll default to R</t>
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>This will run web view. We mostly use this</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
+    <comment ref="D10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000008000000}">
       <text>
         <r>
           <rPr>
@@ -146,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000010000000}">
+    <comment ref="F10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -155,11 +183,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>Regression - only run if the config file specifies Regression.  If test type does not include R, S or F, we'll default to R</t>
+          <t>Smoke - only run if the config file specifies Regression or Smoke</t>
         </r>
       </text>
     </comment>
-    <comment ref="G9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -172,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000F000000}">
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -181,11 +209,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>Smoke - only run if the config file specifies Regression or Smoke</t>
+          <t>Functional - only run if config file specifies Regression or Functional</t>
         </r>
       </text>
     </comment>
-    <comment ref="G10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -200,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000E000000}">
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -209,11 +237,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>Functional - only run if config file specifies Regression or Functional</t>
+          <t>Don't run this test</t>
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="D13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -226,7 +254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000D000000}">
+    <comment ref="F13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -235,11 +263,11 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t>Don't run this test</t>
+          <t>Visual test. If this test fails, screenshot will be captured and stored in output folder</t>
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="D14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -252,20 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>Visual test. If this test fails, screenshot will be captured and stored in output folder</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="F14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -278,7 +293,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="I14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="D15" authorId="1" shapeId="0" xr:uid="{856E84E4-D0D6-4193-90B6-3CFFAC418DEC}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>For shadow dom elements, enter the xpath of the parent element and we'll get the shadow root for you</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -296,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="268">
   <si>
     <t>Compare</t>
   </si>
@@ -919,21 +947,9 @@
     <t>Expected image file and actual image file separated by a pipe</t>
   </si>
   <si>
-    <t>Config FIle</t>
-  </si>
-  <si>
     <t>Test File</t>
   </si>
   <si>
-    <t>ADA values</t>
-  </si>
-  <si>
-    <t>Browsers</t>
-  </si>
-  <si>
-    <t>Sizes</t>
-  </si>
-  <si>
     <t>Test Type</t>
   </si>
   <si>
@@ -943,45 +959,18 @@
     <t>Test Types</t>
   </si>
   <si>
-    <t>Web</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Full</t>
-  </si>
-  <si>
     <t>Regression</t>
   </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Tablet</t>
-  </si>
-  <si>
-    <t>Firefox</t>
-  </si>
-  <si>
     <t>Functional</t>
   </si>
   <si>
     <t>xpath</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>Safari</t>
-  </si>
-  <si>
     <t>Smoke</t>
   </si>
   <si>
@@ -991,42 +980,24 @@
     <t>M</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Edge</t>
-  </si>
-  <si>
     <t>class name</t>
   </si>
   <si>
     <t>R</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>ie</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
     <t>S</t>
   </si>
   <si>
-    <t>Internet Explorer</t>
-  </si>
-  <si>
     <t>tagname</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>Headless</t>
-  </si>
-  <si>
     <t>link text</t>
   </si>
   <si>
@@ -1163,13 +1134,52 @@
   </si>
   <si>
     <t>(appPackage | appActivity)</t>
+  </si>
+  <si>
+    <t>Config File</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>shadow dom</t>
+  </si>
+  <si>
+    <t>accessibility id</t>
+  </si>
+  <si>
+    <t>ai</t>
+  </si>
+  <si>
+    <t>android data matcher</t>
+  </si>
+  <si>
+    <t>android view tag</t>
+  </si>
+  <si>
+    <t>android ui automator</t>
+  </si>
+  <si>
+    <t>ios class chain</t>
+  </si>
+  <si>
+    <t>ios ns predicate string</t>
+  </si>
+  <si>
+    <t>windows automation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1250,6 +1260,12 @@
       <sz val="10"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1423,7 +1439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1448,7 +1464,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1473,13 +1488,19 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1595,13 +1616,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color rgb="FF999999"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color rgb="FF999999"/>
         </left>
@@ -1611,6 +1625,13 @@
         <top style="thin">
           <color rgb="FF999999"/>
         </top>
+        <bottom style="thin">
+          <color rgb="FF999999"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color rgb="FF999999"/>
         </bottom>
@@ -1829,24 +1850,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48403383-F6DC-4D89-A5A4-66B81BDE8ACE}" name="Table22" displayName="Table22" ref="A1:C12" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48403383-F6DC-4D89-A5A4-66B81BDE8ACE}" name="Table22" displayName="Table22" ref="A1:C12" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
   <autoFilter ref="A1:C12" xr:uid="{3A8196F3-CE1F-4FAC-85FE-2F51495F7BFB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{53B441B0-7F96-4D15-94E5-D0F4955A91CD}" name="Action / Keyword" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{CE3C4030-1E8E-434B-9EB2-DB08AFA615A5}" name="Expected" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{67687FCD-F7A4-4C3B-AC6A-561EC47CF524}" name="Notes" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{53B441B0-7F96-4D15-94E5-D0F4955A91CD}" name="Action / Keyword" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{CE3C4030-1E8E-434B-9EB2-DB08AFA615A5}" name="Expected" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{67687FCD-F7A4-4C3B-AC6A-561EC47CF524}" name="Notes" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EEC6C929-C42E-40EE-ACD4-C5CF696595EB}" name="Table2" displayName="Table2" ref="A1:C90" totalsRowShown="0" headerRowDxfId="13" headerRowBorderDxfId="12" tableBorderDxfId="11" totalsRowBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EEC6C929-C42E-40EE-ACD4-C5CF696595EB}" name="Table2" displayName="Table2" ref="A1:C90" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
   <autoFilter ref="A1:C90" xr:uid="{3A8196F3-CE1F-4FAC-85FE-2F51495F7BFB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{44C580A7-5B9F-4D42-AD3F-632EC8723878}" name="Action / Keyword" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{419EB3E1-9F00-49BC-9078-7F878531B4EC}" name="Expected" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{9AAE3F98-51E3-48B6-98DA-A796DCCB0687}" name="Notes" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{44C580A7-5B9F-4D42-AD3F-632EC8723878}" name="Action / Keyword" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{419EB3E1-9F00-49BC-9078-7F878531B4EC}" name="Expected" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{9AAE3F98-51E3-48B6-98DA-A796DCCB0687}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2055,9 +2076,9 @@
   </sheetPr>
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2072,67 +2093,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="45" t="s">
-        <v>249</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>251</v>
-      </c>
-      <c r="C1" s="45" t="s">
-        <v>258</v>
+      <c r="A1" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="46" t="s">
-        <v>250</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>252</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>259</v>
+      <c r="A2" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="47"/>
-      <c r="B3" s="46" t="s">
-        <v>253</v>
-      </c>
-      <c r="C3" s="46" t="s">
-        <v>260</v>
+      <c r="A3" s="44"/>
+      <c r="B3" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="47"/>
-      <c r="B4" s="46" t="s">
-        <v>254</v>
-      </c>
-      <c r="C4" s="46"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="43"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="47"/>
-      <c r="B5" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>261</v>
+      <c r="A5" s="44"/>
+      <c r="B5" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="47"/>
-      <c r="B6" s="46" t="s">
-        <v>256</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>262</v>
+      <c r="A6" s="44"/>
+      <c r="B6" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="47"/>
-      <c r="B7" s="46" t="s">
-        <v>257</v>
-      </c>
-      <c r="C7" s="46"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="43" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" s="43"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="5"/>
@@ -2153,9 +2174,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
@@ -2168,120 +2189,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>252</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="30" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
-        <v>254</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
-        <v>255</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
-        <v>256</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C7" s="30" t="s">
-        <v>272</v>
-      </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
-        <v>259</v>
+      <c r="A8" s="28" t="s">
+        <v>240</v>
       </c>
       <c r="B8" s="11"/>
-      <c r="C8" s="30"/>
+      <c r="C8" s="29"/>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29" t="s">
-        <v>260</v>
+      <c r="A9" s="28" t="s">
+        <v>241</v>
       </c>
       <c r="B9" s="11"/>
-      <c r="C9" s="30"/>
+      <c r="C9" s="29"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29" t="s">
-        <v>261</v>
+      <c r="A10" s="28" t="s">
+        <v>242</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="30"/>
+      <c r="C10" s="29"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
+      <c r="A11" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
-        <v>250</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="C12" s="42"/>
+      <c r="A12" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2316,22 +2337,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2384,7 +2405,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>21</v>
@@ -2404,7 +2425,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>27</v>
@@ -2437,7 +2458,7 @@
         <v>33</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>26</v>
@@ -2612,7 +2633,7 @@
       </c>
       <c r="C18" s="15"/>
       <c r="E18" s="4" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="F18" s="7"/>
     </row>
@@ -2646,7 +2667,7 @@
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="15" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>76</v>
@@ -2660,7 +2681,7 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="15" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>79</v>
@@ -2686,7 +2707,7 @@
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="15" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="11" t="s">
@@ -2738,18 +2759,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="38" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -2760,7 +2781,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -2771,7 +2792,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>77</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -2782,7 +2803,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>83</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -2793,18 +2814,18 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>98</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -2815,18 +2836,18 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="26" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -2835,7 +2856,7 @@
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -2844,7 +2865,7 @@
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -2855,7 +2876,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -2864,7 +2885,7 @@
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="26" t="s">
         <v>40</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -2873,7 +2894,7 @@
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="25" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -2882,7 +2903,7 @@
       <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -2893,7 +2914,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -2902,47 +2923,47 @@
       <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="27" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="31"/>
+      <c r="C17" s="30"/>
     </row>
     <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="27" t="s">
         <v>108</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="C18" s="31"/>
+      <c r="C18" s="30"/>
     </row>
     <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="27" t="s">
         <v>110</v>
       </c>
       <c r="B19" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="27" t="s">
         <v>61</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="15" t="s">
@@ -2953,7 +2974,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="15" t="s">
@@ -2962,7 +2983,7 @@
       <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="25" t="s">
         <v>71</v>
       </c>
       <c r="B23" s="11" t="s">
@@ -2973,7 +2994,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="25" t="s">
         <v>75</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -2984,7 +3005,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="25" t="s">
         <v>76</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -2995,7 +3016,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="25" t="s">
         <v>79</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -3006,7 +3027,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="25" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="11" t="s">
@@ -3015,7 +3036,7 @@
       <c r="C27" s="6"/>
     </row>
     <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="25" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="8"/>
@@ -3024,7 +3045,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="25" t="s">
         <v>38</v>
       </c>
       <c r="B29" s="11" t="s">
@@ -3033,7 +3054,7 @@
       <c r="C29" s="6"/>
     </row>
     <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="25" t="s">
         <v>43</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -3044,7 +3065,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="26" t="s">
+      <c r="A31" s="25" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="11" t="s">
@@ -3055,7 +3076,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="26" t="s">
+      <c r="A32" s="25" t="s">
         <v>80</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -3066,7 +3087,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="26" t="s">
+      <c r="A33" s="25" t="s">
         <v>73</v>
       </c>
       <c r="B33" s="11" t="s">
@@ -3077,29 +3098,29 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="26" t="s">
-        <v>235</v>
+      <c r="A34" s="25" t="s">
+        <v>216</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="26" t="s">
+      <c r="A35" s="25" t="s">
         <v>85</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C35" s="30" t="s">
+      <c r="C35" s="29" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="26" t="s">
+      <c r="A36" s="25" t="s">
         <v>87</v>
       </c>
       <c r="B36" s="11" t="s">
@@ -3108,7 +3129,7 @@
       <c r="C36" s="6"/>
     </row>
     <row r="37" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="25" t="s">
         <v>14</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -3119,7 +3140,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -3128,7 +3149,7 @@
       <c r="C38" s="6"/>
     </row>
     <row r="39" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="25" t="s">
         <v>78</v>
       </c>
       <c r="B39" s="8"/>
@@ -3137,7 +3158,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="26" t="s">
+      <c r="A40" s="25" t="s">
         <v>81</v>
       </c>
       <c r="B40" s="15" t="s">
@@ -3148,7 +3169,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="26" t="s">
+      <c r="A41" s="25" t="s">
         <v>36</v>
       </c>
       <c r="B41" s="8"/>
@@ -3157,16 +3178,16 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="26" t="s">
+      <c r="A42" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="6" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="26" t="s">
+      <c r="A43" s="25" t="s">
         <v>41</v>
       </c>
       <c r="B43" s="8"/>
@@ -3175,14 +3196,14 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="26" t="s">
+      <c r="A44" s="25" t="s">
         <v>22</v>
       </c>
       <c r="B44" s="8"/>
       <c r="C44" s="6"/>
     </row>
     <row r="45" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="26" t="s">
+      <c r="A45" s="25" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="8"/>
@@ -3191,14 +3212,14 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="26" t="s">
+      <c r="A46" s="25" t="s">
         <v>28</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" s="6"/>
     </row>
     <row r="47" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="26" t="s">
+      <c r="A47" s="25" t="s">
         <v>60</v>
       </c>
       <c r="B47" s="8"/>
@@ -3207,7 +3228,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="26" t="s">
+      <c r="A48" s="25" t="s">
         <v>63</v>
       </c>
       <c r="B48" s="8"/>
@@ -3216,7 +3237,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="26" t="s">
+      <c r="A49" s="25" t="s">
         <v>53</v>
       </c>
       <c r="B49" s="8"/>
@@ -3225,7 +3246,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="26" t="s">
+      <c r="A50" s="25" t="s">
         <v>56</v>
       </c>
       <c r="B50" s="8"/>
@@ -3234,7 +3255,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="26" t="s">
+      <c r="A51" s="25" t="s">
         <v>57</v>
       </c>
       <c r="B51" s="11" t="s">
@@ -3245,7 +3266,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="26" t="s">
+      <c r="A52" s="25" t="s">
         <v>54</v>
       </c>
       <c r="B52" s="15" t="s">
@@ -3256,18 +3277,18 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="26" t="s">
+      <c r="A53" s="25" t="s">
         <v>67</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="30" t="s">
+      <c r="C53" s="29" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="26" t="s">
+      <c r="A54" s="25" t="s">
         <v>34</v>
       </c>
       <c r="B54" s="15" t="s">
@@ -3278,7 +3299,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="26" t="s">
+      <c r="A55" s="25" t="s">
         <v>39</v>
       </c>
       <c r="B55" s="11" t="s">
@@ -3289,7 +3310,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="26" t="s">
+      <c r="A56" s="25" t="s">
         <v>44</v>
       </c>
       <c r="B56" s="15" t="s">
@@ -3300,7 +3321,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="26" t="s">
+      <c r="A57" s="25" t="s">
         <v>48</v>
       </c>
       <c r="B57" s="11" t="s">
@@ -3311,7 +3332,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="26" t="s">
+      <c r="A58" s="25" t="s">
         <v>51</v>
       </c>
       <c r="B58" s="11" t="s">
@@ -3322,7 +3343,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="26" t="s">
+      <c r="A59" s="25" t="s">
         <v>65</v>
       </c>
       <c r="B59" s="15"/>
@@ -3331,7 +3352,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="27" t="s">
+      <c r="A60" s="26" t="s">
         <v>37</v>
       </c>
       <c r="B60" s="8"/>
@@ -3340,7 +3361,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="27" t="s">
+      <c r="A61" s="26" t="s">
         <v>42</v>
       </c>
       <c r="B61" s="8"/>
@@ -3349,20 +3370,20 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="28" t="s">
+      <c r="A62" s="27" t="s">
         <v>46</v>
       </c>
       <c r="B62" s="7"/>
-      <c r="C62" s="31" t="s">
+      <c r="C62" s="30" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="28" t="s">
+      <c r="A63" s="27" t="s">
         <v>50</v>
       </c>
       <c r="B63" s="7"/>
-      <c r="C63" s="31" t="s">
+      <c r="C63" s="30" t="s">
         <v>160</v>
       </c>
       <c r="D63" s="19" t="s">
@@ -3370,11 +3391,11 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="28" t="s">
+      <c r="A64" s="27" t="s">
         <v>26</v>
       </c>
       <c r="B64" s="7"/>
-      <c r="C64" s="31" t="s">
+      <c r="C64" s="30" t="s">
         <v>161</v>
       </c>
       <c r="D64" s="19" t="s">
@@ -3382,264 +3403,264 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="28" t="s">
+      <c r="A65" s="27" t="s">
         <v>20</v>
       </c>
       <c r="B65" s="7"/>
-      <c r="C65" s="31" t="s">
+      <c r="C65" s="30" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="27" t="s">
+      <c r="A66" s="26" t="s">
         <v>49</v>
       </c>
       <c r="B66" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="C66" s="31" t="s">
+      <c r="C66" s="30" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="26" t="s">
         <v>52</v>
       </c>
       <c r="B67" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="C67" s="31" t="s">
+      <c r="C67" s="30" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="28" t="s">
+      <c r="A68" s="27" t="s">
         <v>55</v>
       </c>
       <c r="B68" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="C68" s="31" t="s">
+      <c r="C68" s="30" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="28" t="s">
+      <c r="A69" s="27" t="s">
         <v>59</v>
       </c>
       <c r="B69" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="C69" s="31" t="s">
+      <c r="C69" s="30" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="28" t="s">
+      <c r="A70" s="27" t="s">
         <v>62</v>
       </c>
       <c r="B70" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="C70" s="31" t="s">
+      <c r="C70" s="30" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="27" t="s">
         <v>66</v>
       </c>
       <c r="B71" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="C71" s="31" t="s">
+      <c r="C71" s="30" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="28" t="s">
+      <c r="A72" s="27" t="s">
         <v>69</v>
       </c>
       <c r="B72" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="C72" s="31" t="s">
+      <c r="C72" s="30" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="28" t="s">
+      <c r="A73" s="27" t="s">
         <v>72</v>
       </c>
       <c r="B73" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="C73" s="31" t="s">
+      <c r="C73" s="30" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="28" t="s">
+      <c r="A74" s="27" t="s">
         <v>68</v>
       </c>
       <c r="B74" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="C74" s="32" t="s">
+      <c r="C74" s="31" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="28" t="s">
+      <c r="A75" s="27" t="s">
         <v>64</v>
       </c>
       <c r="B75" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="C75" s="32" t="s">
+      <c r="C75" s="31" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="28" t="s">
+      <c r="A76" s="27" t="s">
         <v>70</v>
       </c>
       <c r="B76" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="C76" s="31" t="s">
+      <c r="C76" s="30" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="28" t="s">
+      <c r="A77" s="27" t="s">
         <v>74</v>
       </c>
       <c r="B77" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="C77" s="32" t="s">
+      <c r="C77" s="31" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="28" t="s">
+      <c r="A78" s="27" t="s">
         <v>11</v>
       </c>
       <c r="B78" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="C78" s="31" t="s">
+      <c r="C78" s="30" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="28" t="s">
+      <c r="A79" s="27" t="s">
         <v>29</v>
       </c>
       <c r="B79" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="C79" s="31" t="s">
+      <c r="C79" s="30" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="28" t="s">
+      <c r="A80" s="27" t="s">
         <v>17</v>
       </c>
       <c r="B80" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="C80" s="31" t="s">
+      <c r="C80" s="30" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="28" t="s">
+      <c r="A81" s="27" t="s">
         <v>23</v>
       </c>
       <c r="B81" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="C81" s="31" t="s">
+      <c r="C81" s="30" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="29" t="s">
+      <c r="A82" s="28" t="s">
         <v>82</v>
       </c>
       <c r="B82" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="C82" s="33" t="s">
+      <c r="C82" s="32" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="29" t="s">
+      <c r="A83" s="28" t="s">
         <v>84</v>
       </c>
       <c r="B83" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="C83" s="33" t="s">
+      <c r="C83" s="32" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="29" t="s">
+      <c r="A84" s="28" t="s">
         <v>86</v>
       </c>
       <c r="B84" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="C84" s="33" t="s">
+      <c r="C84" s="32" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="34" t="s">
+      <c r="A85" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="35" t="s">
+      <c r="B85" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="C85" s="36" t="s">
+      <c r="C85" s="35" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="29" t="s">
-        <v>238</v>
+      <c r="A86" s="28" t="s">
+        <v>219</v>
       </c>
       <c r="B86" s="11"/>
-      <c r="C86" s="30" t="s">
-        <v>239</v>
+      <c r="C86" s="29" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="34" t="s">
-        <v>240</v>
-      </c>
-      <c r="B87" s="41"/>
-      <c r="C87" s="42" t="s">
-        <v>241</v>
+      <c r="A87" s="33" t="s">
+        <v>221</v>
+      </c>
+      <c r="B87" s="40"/>
+      <c r="C87" s="41" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="34" t="s">
-        <v>244</v>
-      </c>
-      <c r="B88" s="41"/>
-      <c r="C88" s="42" t="s">
-        <v>245</v>
+      <c r="A88" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="B88" s="40"/>
+      <c r="C88" s="41" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="29" t="s">
-        <v>246</v>
+      <c r="A89" s="28" t="s">
+        <v>227</v>
       </c>
       <c r="B89" s="15" t="s">
         <v>114</v>
@@ -3649,13 +3670,13 @@
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="29" t="s">
-        <v>247</v>
+      <c r="A90" s="28" t="s">
+        <v>228</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="C90" s="42"/>
+        <v>229</v>
+      </c>
+      <c r="C90" s="41"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3675,204 +3696,179 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:AB14"/>
+  <dimension ref="B2:Y21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1"/>
-    <col min="8" max="8" width="3" customWidth="1"/>
-    <col min="11" max="28" width="14.42578125" hidden="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="8" max="25" width="14.42578125" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B2" s="43" t="s">
+    <row r="2" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B2" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="D2" s="47" t="s">
         <v>192</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="G2" s="43" t="s">
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+    </row>
+    <row r="4" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="39" t="s">
         <v>193</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="39" t="s">
         <v>195</v>
       </c>
-      <c r="D4" s="40" t="s">
+    </row>
+    <row r="5" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="D5" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="E5" s="21"/>
+      <c r="F5" s="45" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="40" t="s">
+      <c r="D6" s="9" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="17" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="45" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="D7" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="45" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D8" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D9" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>202</v>
-      </c>
-      <c r="E5" s="17" t="s">
+      <c r="E9" s="21"/>
+      <c r="F9" s="22" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D10" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="23" t="s">
+      <c r="E10" s="21"/>
+      <c r="F10" s="22" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D11" s="9" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="E11" s="21"/>
+      <c r="F11" s="22" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D12" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="G6" s="9" t="s">
+      <c r="F12" s="22" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D13" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="23" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="18" t="s">
+      <c r="F13" s="22" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D14" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="C7" s="22" t="s">
-        <v>212</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="18" t="s">
+      <c r="F14" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="G7" s="9" t="s">
+    </row>
+    <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="F15" s="22" t="s">
         <v>214</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="23" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B8" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="G8" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="23" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>221</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="G9" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="23" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
-      <c r="C10" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="G10" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="23" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B11" s="7"/>
-      <c r="C11" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="G11" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="23" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G12" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G13" s="10"/>
-      <c r="I13" s="23" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="G14" s="10"/>
-      <c r="I14" s="23" t="s">
-        <v>233</v>
+    </row>
+    <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D16" s="9" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D17" s="9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D19" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="9" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="9" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="G2:I2"/>
+  <mergeCells count="1">
+    <mergeCell ref="D2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Resources/StreamLine App Automator Resources/Actions and Keywords Dictionary.xlsx
+++ b/Resources/StreamLine App Automator Resources/Actions and Keywords Dictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\StreamLineQA-Automation-Test\Resources\StreamLine App Automator Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\StreamLineQA-Automation\Resources\StreamLine App Automator Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6E7F3C-C122-4845-84F4-D25D83BB2F38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3FA8C0-12CC-4BB8-B4CA-E35D0AC34959}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="App Word Bank" sheetId="6" r:id="rId1"/>
@@ -324,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="270">
   <si>
     <t>Compare</t>
   </si>
@@ -1173,6 +1173,12 @@
   </si>
   <si>
     <t>windows automation</t>
+  </si>
+  <si>
+    <t>text contains</t>
+  </si>
+  <si>
+    <t>VISIBLE TEXT ONLY. Checks that text contains expected value</t>
   </si>
 </sst>
 </file>
@@ -1862,8 +1868,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EEC6C929-C42E-40EE-ACD4-C5CF696595EB}" name="Table2" displayName="Table2" ref="A1:C90" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C90" xr:uid="{3A8196F3-CE1F-4FAC-85FE-2F51495F7BFB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EEC6C929-C42E-40EE-ACD4-C5CF696595EB}" name="Table2" displayName="Table2" ref="A1:C91" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C91" xr:uid="{3A8196F3-CE1F-4FAC-85FE-2F51495F7BFB}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{44C580A7-5B9F-4D42-AD3F-632EC8723878}" name="Action / Keyword" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{419EB3E1-9F00-49BC-9078-7F878531B4EC}" name="Expected" dataDxfId="1"/>
@@ -2076,7 +2082,7 @@
   </sheetPr>
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
@@ -2319,9 +2325,9 @@
   </sheetPr>
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AA18" sqref="AA18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2476,7 +2482,9 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="C8" s="9"/>
+      <c r="C8" s="9" t="s">
+        <v>268</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>40</v>
       </c>
@@ -2492,9 +2500,7 @@
       <c r="B9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="C9" s="9"/>
       <c r="D9" s="8"/>
       <c r="E9" s="4" t="s">
         <v>45</v>
@@ -2509,7 +2515,7 @@
         <v>43</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>49</v>
@@ -2525,7 +2531,7 @@
         <v>47</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>52</v>
@@ -2540,7 +2546,7 @@
       <c r="A12" s="8"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>55</v>
@@ -2556,7 +2562,7 @@
         <v>54</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>59</v>
@@ -2572,7 +2578,9 @@
       <c r="B14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="9"/>
+      <c r="C14" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="D14" s="3" t="s">
         <v>62</v>
       </c>
@@ -2584,9 +2592,7 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
-        <v>58</v>
-      </c>
+      <c r="C15" s="9"/>
       <c r="D15" s="3" t="s">
         <v>66</v>
       </c>
@@ -2602,7 +2608,7 @@
         <v>64</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>69</v>
@@ -2616,7 +2622,7 @@
         <v>68</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>72</v>
@@ -2631,7 +2637,9 @@
       <c r="B18" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="15"/>
+      <c r="C18" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="E18" s="4" t="s">
         <v>216</v>
       </c>
@@ -2642,9 +2650,7 @@
       <c r="B19" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>71</v>
-      </c>
+      <c r="C19" s="15"/>
       <c r="D19" s="2" t="s">
         <v>77</v>
       </c>
@@ -2654,7 +2660,7 @@
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>80</v>
@@ -2670,7 +2676,7 @@
         <v>219</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="11" t="s">
@@ -2683,8 +2689,8 @@
       <c r="B22" s="15" t="s">
         <v>221</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>79</v>
+      <c r="C22" s="9" t="s">
+        <v>76</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>82</v>
@@ -2695,7 +2701,9 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
-      <c r="C23" s="11"/>
+      <c r="C23" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="D23" s="11" t="s">
         <v>84</v>
       </c>
@@ -2743,11 +2751,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y90"/>
+  <dimension ref="A1:Y91"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A86" sqref="A86:XFD86"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2837,27 +2845,29 @@
     </row>
     <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="25" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B9" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C9" s="29" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="4"/>
     </row>
     <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>103</v>
@@ -2865,28 +2875,28 @@
       <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B12" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>103</v>
@@ -2894,680 +2904,678 @@
       <c r="C13" s="4"/>
     </row>
     <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
-        <v>7</v>
+      <c r="A14" s="26" t="s">
+        <v>40</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="6"/>
+        <v>103</v>
+      </c>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>105</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B17" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="30"/>
+      <c r="C17" s="6"/>
     </row>
     <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C18" s="30"/>
     </row>
     <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>112</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="30"/>
     </row>
     <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>111</v>
       </c>
       <c r="C20" s="30" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="30" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="25" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="6"/>
+        <v>114</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>118</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>117</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>117</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="25" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>117</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="25" t="s">
-        <v>31</v>
+        <v>79</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="6" t="s">
-        <v>123</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="6" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="25" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>126</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="25" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="25" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="25" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="25" t="s">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>217</v>
+        <v>92</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>218</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="25" t="s">
-        <v>85</v>
+        <v>216</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C35" s="29" t="s">
-        <v>132</v>
+        <v>217</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="25" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C36" s="6"/>
+        <v>131</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="37" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="25" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>134</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C37" s="6"/>
     </row>
     <row r="38" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="25" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C38" s="6"/>
+        <v>133</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="39" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="6" t="s">
-        <v>136</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C39" s="6"/>
     </row>
     <row r="40" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>101</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B40" s="8"/>
       <c r="C40" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>101</v>
+      </c>
       <c r="C41" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="25" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B42" s="8"/>
       <c r="C42" s="6" t="s">
-        <v>224</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="25" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B43" s="8"/>
       <c r="C43" s="6" t="s">
-        <v>139</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="25" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B44" s="8"/>
-      <c r="C44" s="6"/>
+      <c r="C44" s="6" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="45" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="25" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B45" s="8"/>
-      <c r="C45" s="6" t="s">
-        <v>140</v>
-      </c>
+      <c r="C45" s="6"/>
     </row>
     <row r="46" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="25" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B46" s="8"/>
-      <c r="C46" s="6"/>
+      <c r="C46" s="6" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="47" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="25" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="B47" s="8"/>
-      <c r="C47" s="6" t="s">
-        <v>141</v>
-      </c>
+      <c r="C47" s="6"/>
     </row>
     <row r="48" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="25" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="B49" s="8"/>
       <c r="C49" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B50" s="8"/>
       <c r="C50" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>117</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B51" s="8"/>
       <c r="C51" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>101</v>
+        <v>57</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C53" s="29" t="s">
-        <v>148</v>
+        <v>54</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>150</v>
+        <v>67</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>117</v>
+        <v>34</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>149</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>152</v>
+        <v>39</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>117</v>
+        <v>44</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>117</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="6" t="s">
+      <c r="B60" s="15"/>
+      <c r="C60" s="6" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="4" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="26" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B61" s="8"/>
       <c r="C61" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62" s="8"/>
+      <c r="C62" s="4" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B62" s="7"/>
-      <c r="C62" s="30" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="27" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="27" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="30" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D64" s="19" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="27" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="D65" s="19" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="30" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="26" t="s">
+    <row r="67" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="26" t="s">
         <v>49</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C66" s="30" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="26" t="s">
-        <v>52</v>
       </c>
       <c r="B67" s="20" t="s">
         <v>164</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="27" t="s">
-        <v>55</v>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="26" t="s">
+        <v>52</v>
       </c>
       <c r="B68" s="20" t="s">
         <v>164</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="27" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B69" s="20" t="s">
         <v>164</v>
       </c>
       <c r="C69" s="30" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A70" s="27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B70" s="20" t="s">
         <v>164</v>
       </c>
       <c r="C70" s="30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A71" s="27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B71" s="20" t="s">
         <v>164</v>
       </c>
       <c r="C71" s="30" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A72" s="27" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B72" s="20" t="s">
         <v>164</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A73" s="27" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B73" s="20" t="s">
         <v>164</v>
       </c>
       <c r="C73" s="30" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74" s="30" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="27" t="s">
+    <row r="75" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="B74" s="20" t="s">
+      <c r="B75" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="C74" s="31" t="s">
+      <c r="C75" s="31" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="27" t="s">
+    <row r="76" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="B75" s="20" t="s">
+      <c r="B76" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="C75" s="31" t="s">
+      <c r="C76" s="31" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="27" t="s">
+    <row r="77" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B76" s="20" t="s">
+      <c r="B77" s="20" t="s">
         <v>177</v>
       </c>
-      <c r="C76" s="30" t="s">
+      <c r="C77" s="30" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="27" t="s">
+    <row r="78" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="B77" s="20" t="s">
+      <c r="B78" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="C77" s="31" t="s">
+      <c r="C78" s="31" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="27" t="s">
+    <row r="79" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="27" t="s">
         <v>11</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="C78" s="30" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="27" t="s">
-        <v>29</v>
       </c>
       <c r="B79" s="20" t="s">
         <v>181</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A80" s="27" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B80" s="20" t="s">
         <v>181</v>
@@ -3578,7 +3586,7 @@
     </row>
     <row r="81" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A81" s="27" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B81" s="20" t="s">
         <v>181</v>
@@ -3588,101 +3596,112 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="28" t="s">
-        <v>82</v>
+      <c r="A82" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="B82" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="C82" s="32" t="s">
-        <v>185</v>
+        <v>181</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A83" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C83" s="32" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A84" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="C84" s="32" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A85" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="B84" s="20" t="s">
+      <c r="B85" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="C84" s="32" t="s">
+      <c r="C85" s="32" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="33" t="s">
+    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B85" s="34" t="s">
+      <c r="B86" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="C85" s="35" t="s">
+      <c r="C86" s="35" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="28" t="s">
+    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="B86" s="11"/>
-      <c r="C86" s="29" t="s">
+      <c r="B87" s="11"/>
+      <c r="C87" s="29" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="B87" s="40"/>
-      <c r="C87" s="41" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="33" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B88" s="40"/>
       <c r="C88" s="41" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="B89" s="40"/>
+      <c r="C89" s="41" t="s">
         <v>226</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B91" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="C90" s="41"/>
+      <c r="C91" s="41"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C74" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C75" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C77" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C75" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C76" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="C78" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Resources/StreamLine App Automator Resources/Actions and Keywords Dictionary.xlsx
+++ b/Resources/StreamLine App Automator Resources/Actions and Keywords Dictionary.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\StreamLineQA-Automation\Resources\StreamLine App Automator Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\StreamLineQA-Automation-Test\Resources\StreamLine App Automator Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3FA8C0-12CC-4BB8-B4CA-E35D0AC34959}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99864D00-C622-40FE-91DF-FA9CF0CFA837}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="App Word Bank" sheetId="6" r:id="rId1"/>
     <sheet name="App Dictionary" sheetId="7" r:id="rId2"/>
-    <sheet name="Web Word Bank" sheetId="1" r:id="rId3"/>
-    <sheet name="Web Dictionary" sheetId="2" r:id="rId4"/>
+    <sheet name="Web Word Bank" sheetId="8" r:id="rId3"/>
+    <sheet name="Web Dictionary" sheetId="9" r:id="rId4"/>
     <sheet name="Other Important Values" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -324,7 +324,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="263">
   <si>
     <t>Compare</t>
   </si>
@@ -350,9 +350,6 @@
     <t>delay</t>
   </si>
   <si>
-    <t>compare link custom</t>
-  </si>
-  <si>
     <t>compare css value (css)</t>
   </si>
   <si>
@@ -368,9 +365,6 @@
     <t>home</t>
   </si>
   <si>
-    <t>compare text custom</t>
-  </si>
-  <si>
     <t>compare size</t>
   </si>
   <si>
@@ -416,9 +410,6 @@
     <t>wait until clickable</t>
   </si>
   <si>
-    <t>compare text unformatted</t>
-  </si>
-  <si>
     <t>type value</t>
   </si>
   <si>
@@ -521,9 +512,6 @@
     <t>key up</t>
   </si>
   <si>
-    <t>compare inner html custom</t>
-  </si>
-  <si>
     <t>size x lteq</t>
   </si>
   <si>
@@ -605,15 +593,9 @@
     <t>expected url</t>
   </si>
   <si>
-    <t>Expected value of N/A when element has no link</t>
-  </si>
-  <si>
     <t>expected text</t>
   </si>
   <si>
-    <t>VISIBLE TEXT ONLY. Removes &amp;nbsp;, leading and trailing spaces, and 1 trailing new line character</t>
-  </si>
-  <si>
     <t>yes or no</t>
   </si>
   <si>
@@ -626,9 +608,6 @@
     <t>Scrolls to a given element.</t>
   </si>
   <si>
-    <t>VISIBLE TEXT ONLY</t>
-  </si>
-  <si>
     <t>(x, y)</t>
   </si>
   <si>
@@ -662,18 +641,6 @@
     <t>expected value</t>
   </si>
   <si>
-    <t>domain/ functionality. Pass if actual contains expected</t>
-  </si>
-  <si>
-    <t>Pass if actual contains expected</t>
-  </si>
-  <si>
-    <t>domain/(rest of url)</t>
-  </si>
-  <si>
-    <t>domain is homeURL specified in config file. Use to mitigate environmental differences</t>
-  </si>
-  <si>
     <t>current page url</t>
   </si>
   <si>
@@ -716,21 +683,12 @@
     <t>Yes if expecting selected. No if not.</t>
   </si>
   <si>
-    <t>Use this to handle clicks that open new tabs. New tab will be closed at the end of this check.</t>
-  </si>
-  <si>
     <t>number of pixels to scroll by</t>
   </si>
   <si>
     <t>Only used for verical scrolling</t>
   </si>
   <si>
-    <t>expected text value</t>
-  </si>
-  <si>
-    <t>Used for all text. Not just visible. Run time is slower than regular compare text</t>
-  </si>
-  <si>
     <t>url you want to navigate to</t>
   </si>
   <si>
@@ -813,9 +771,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Uses jsoup to retrieve element. Use when compare link cannot find an element that exists. Please use css selector</t>
   </si>
   <si>
     <t>decimal number</t>
@@ -1016,18 +971,12 @@
     <t>K</t>
   </si>
   <si>
-    <t>set browser size</t>
-  </si>
-  <si>
     <t>click open new tab contains</t>
   </si>
   <si>
     <t>expected url contains this text</t>
   </si>
   <si>
-    <t>Use this to handle clicks that open new tabs. New tab will be closed at the end of this check. Will check that new tab's url contains given text</t>
-  </si>
-  <si>
     <t>switch to frame</t>
   </si>
   <si>
@@ -1052,9 +1001,6 @@
     <t>Submit the form if element is a form element</t>
   </si>
   <si>
-    <t>compare current url custom</t>
-  </si>
-  <si>
     <t>compare current url contains</t>
   </si>
   <si>
@@ -1178,14 +1124,47 @@
     <t>text contains</t>
   </si>
   <si>
-    <t>VISIBLE TEXT ONLY. Checks that text contains expected value</t>
+    <t>compare text formatted</t>
+  </si>
+  <si>
+    <t>compare inner html jsoup</t>
+  </si>
+  <si>
+    <t>Expected value of N/A when element has no link. Supports relative urls (start with either /, ./, or domain/).</t>
+  </si>
+  <si>
+    <t>VISIBLE TEXT ONLY.</t>
+  </si>
+  <si>
+    <t>VISIBLE TEXT ONLY.  Removes &amp;nbsp;, leading and trailing spaces, and 1 trailing new line character</t>
+  </si>
+  <si>
+    <t>VISIBLE TEXT ONLY. Check that text contains expected value</t>
+  </si>
+  <si>
+    <t>Pass if actual contains expected. For HTML attributes</t>
+  </si>
+  <si>
+    <t>Pass if actual contains expected. For css values</t>
+  </si>
+  <si>
+    <t>Use this to handle clicks that open new tabs. New tab will be closed at the end of this check. Supports relative urls (start with either /, ./, or domain/).</t>
+  </si>
+  <si>
+    <t>Use this to handle clicks that open new tabs. New tab will be closed at the end of this check. Will check that new tab's url contains given text. Supports relative urls (start with either /, ./, or domain/).</t>
+  </si>
+  <si>
+    <t>Supports relative urls (start with either /, ./, or domain/).</t>
+  </si>
+  <si>
+    <t>Uses jsoup to retrieve element. Use when compare link cannot find an element that exists. Please use css selector. Supports relative urls (start with either /, ./, or domain/).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1205,12 +1184,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1218,16 +1191,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1442,74 +1405,71 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{AF159B7D-CB76-4391-A975-DACA9784C0B1}"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -1622,6 +1582,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF999999"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color rgb="FF999999"/>
         </left>
@@ -1631,13 +1598,6 @@
         <top style="thin">
           <color rgb="FF999999"/>
         </top>
-        <bottom style="thin">
-          <color rgb="FF999999"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <bottom style="thin">
           <color rgb="FF999999"/>
         </bottom>
@@ -1868,12 +1828,12 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EEC6C929-C42E-40EE-ACD4-C5CF696595EB}" name="Table2" displayName="Table2" ref="A1:C91" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4" totalsRowBorderDxfId="3">
-  <autoFilter ref="A1:C91" xr:uid="{3A8196F3-CE1F-4FAC-85FE-2F51495F7BFB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{13C20339-325E-4487-93C0-127F00E730C1}" name="Table24" displayName="Table24" ref="A1:C88" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5" totalsRowBorderDxfId="3">
+  <autoFilter ref="A1:C88" xr:uid="{3A8196F3-CE1F-4FAC-85FE-2F51495F7BFB}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{44C580A7-5B9F-4D42-AD3F-632EC8723878}" name="Action / Keyword" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{419EB3E1-9F00-49BC-9078-7F878531B4EC}" name="Expected" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{9AAE3F98-51E3-48B6-98DA-A796DCCB0687}" name="Notes" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{CC547391-5066-41E6-8752-BE5D79FF749A}" name="Action / Keyword" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{03ED3D0D-3A38-4E2F-8DA8-F088335E0364}" name="Expected" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{E2880194-5D45-419E-9C2A-7AE6EDD7C0AE}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2082,9 +2042,9 @@
   </sheetPr>
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2099,76 +2059,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="C1" s="42" t="s">
-        <v>239</v>
+      <c r="A1" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="43" t="s">
-        <v>231</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>233</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>240</v>
+      <c r="A2" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="44"/>
-      <c r="B3" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>241</v>
+      <c r="A3" s="19"/>
+      <c r="B3" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="44"/>
-      <c r="B4" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="C4" s="43"/>
+      <c r="A4" s="19"/>
+      <c r="B4" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="44"/>
-      <c r="B5" s="43" t="s">
-        <v>236</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>242</v>
+      <c r="A5" s="19"/>
+      <c r="B5" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="44"/>
-      <c r="B6" s="43" t="s">
-        <v>237</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>243</v>
+      <c r="A6" s="19"/>
+      <c r="B6" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="44"/>
-      <c r="B7" s="43" t="s">
-        <v>238</v>
-      </c>
-      <c r="C7" s="43"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="18"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="5"/>
+      <c r="B11" s="1"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="5"/>
+      <c r="B13" s="1"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="5"/>
+      <c r="B15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2195,120 +2155,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>91</v>
+      <c r="A1" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C2" s="41" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28" t="s">
+      <c r="C6" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="C4" s="41" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="29"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
-        <v>241</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="29"/>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="29"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>254</v>
-      </c>
-      <c r="C12" s="41"/>
+      <c r="C12" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2319,427 +2279,420 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{449A3D79-BBC5-468B-9C62-22A40E7EF2B8}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" customWidth="1"/>
-    <col min="8" max="25" width="14.42578125" hidden="1"/>
-    <col min="26" max="26" width="14.42578125" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="29.28515625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" style="26" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="24.85546875" style="26" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="26" customWidth="1"/>
+    <col min="7" max="25" width="14.42578125" style="26"/>
+    <col min="26" max="26" width="14.42578125" style="26" hidden="1" customWidth="1"/>
+    <col min="27" max="16384" width="14.42578125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="27" t="s">
+        <v>250</v>
+      </c>
+      <c r="D3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="H3" s="30"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="B4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D4" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>227</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="B5" s="27" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="D5" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="4" t="s">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="C6" s="27" t="s">
+        <v>252</v>
+      </c>
+      <c r="D6" s="27" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="E6" s="29"/>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="30"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="D8" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="C8" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="4" t="s">
+      <c r="D9" s="27"/>
+      <c r="E9" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="4" t="s">
+      <c r="D10" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-      <c r="B10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="3" t="s">
+      <c r="E11" s="29" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-      <c r="B11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="F11" s="27"/>
+      <c r="H11" s="30"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E12" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="3" t="s">
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="27"/>
+      <c r="B13" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="H13" s="30"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
-      <c r="B13" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E14" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="3" t="s">
+      <c r="F14" s="27"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
+      <c r="B15" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E15" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="3" t="s">
+      <c r="F15" s="27"/>
+      <c r="H15" s="30"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
+      <c r="B16" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="29"/>
+      <c r="F16" s="27"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="27"/>
+      <c r="B17" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="C17" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="3" t="s">
+      <c r="D17" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E17" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
-      <c r="B17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="3" t="s">
+      <c r="F17" s="27"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="27"/>
+      <c r="B18" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="F18" s="27"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="27"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="D19" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
-      <c r="B19" s="1" t="s">
+      <c r="F19" s="27"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="31"/>
+      <c r="B20" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="2" t="s">
+      <c r="F20" s="31"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="11" t="s">
+      <c r="F21" s="27"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="27"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="27"/>
+      <c r="D23" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="12"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="11" t="s">
+      <c r="E23" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="27"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="F24" s="27"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E25" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="7"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D26" s="10"/>
+      <c r="D26" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2747,961 +2700,930 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9922A4BC-73DC-40EB-A50D-C09A2BD43CAD}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y91"/>
+  <dimension ref="A1:Y88"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A85" sqref="A85:XFD85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1"/>
-    <col min="2" max="2" width="39.85546875" customWidth="1"/>
-    <col min="3" max="3" width="137.28515625" customWidth="1"/>
-    <col min="5" max="25" width="14.42578125" hidden="1"/>
+    <col min="1" max="1" width="29.28515625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" style="26" customWidth="1"/>
+    <col min="3" max="3" width="169.85546875" style="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="14.42578125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="C3" s="29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C4" s="29" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="29"/>
+    </row>
+    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="29"/>
+    </row>
+    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="29"/>
+    </row>
+    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="29"/>
+    </row>
+    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="29"/>
+    </row>
+    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="29"/>
+    </row>
+    <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="29"/>
+    </row>
+    <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="29"/>
+    </row>
+    <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="29"/>
+    </row>
+    <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C24" s="29" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="29"/>
+    </row>
+    <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="29" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C29" s="29"/>
+    </row>
+    <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="B34" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="29"/>
+    </row>
+    <row r="37" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="29" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="C40" s="29" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41" s="27"/>
+      <c r="C41" s="29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="27"/>
+      <c r="C42" s="29" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="27"/>
+      <c r="C43" s="29"/>
+    </row>
+    <row r="44" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" s="27"/>
+      <c r="C44" s="29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" s="27"/>
+      <c r="C45" s="29"/>
+    </row>
+    <row r="46" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B46" s="27"/>
+      <c r="C46" s="29" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" s="27"/>
+      <c r="C47" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="27"/>
+      <c r="C48" s="29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="27"/>
+      <c r="C49" s="29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" s="29" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A57" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="B58" s="27"/>
+      <c r="C58" s="29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B59" s="27"/>
+      <c r="C59" s="29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" s="27"/>
+      <c r="C60" s="29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="27"/>
+      <c r="C61" s="29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B62" s="27"/>
+      <c r="C62" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B63" s="27"/>
+      <c r="C63" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63" s="33" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="B64" s="27"/>
+      <c r="C64" s="29" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B65" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" s="29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B66" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A67" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="B67" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A68" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B68" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A69" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B69" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" s="29" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A70" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B70" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A71" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" s="29" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A72" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" s="29" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A73" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B73" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" s="39" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B74" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" s="39" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A75" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="B76" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C76" s="39" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A77" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
-        <v>268</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="B77" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C77" s="29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B78" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C78" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A79" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="26" t="s">
+      <c r="B79" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A80" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="C18" s="30"/>
-    </row>
-    <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C19" s="30"/>
-    </row>
-    <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="25" t="s">
-        <v>75</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
-        <v>76</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="25" t="s">
+      <c r="B80" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" s="29" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B81" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="C81" s="38" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A82" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="25" t="s">
-        <v>216</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C39" s="6"/>
-    </row>
-    <row r="40" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="6" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="6"/>
-    </row>
-    <row r="46" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="6" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="6"/>
-    </row>
-    <row r="48" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="6" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="6" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C54" s="29" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B62" s="8"/>
-      <c r="C62" s="4" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="30" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="D65" s="19" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="30" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="B67" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C67" s="30" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B68" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C68" s="30" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B69" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C69" s="30" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C70" s="30" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B71" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C71" s="30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B72" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C72" s="30" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B73" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C73" s="30" t="s">
+      <c r="B82" s="31" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C74" s="30" t="s">
+      <c r="C82" s="38" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B75" s="20" t="s">
+    <row r="83" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="C75" s="31" t="s">
+      <c r="C83" s="38" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B76" s="20" t="s">
+    <row r="84" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B84" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="C76" s="31" t="s">
+      <c r="C84" s="43" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="C77" s="30" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="27" t="s">
-        <v>74</v>
-      </c>
-      <c r="B78" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="C78" s="31" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A79" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="C79" s="30" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A80" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="C80" s="30" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B81" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="C81" s="30" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A82" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="C82" s="30" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="C83" s="32" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A84" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B84" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="C84" s="32" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A85" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="B85" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C85" s="32" t="s">
-        <v>189</v>
+    <row r="85" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="B85" s="31"/>
+      <c r="C85" s="38" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="C86" s="35" t="s">
-        <v>191</v>
+      <c r="A86" s="41" t="s">
+        <v>204</v>
+      </c>
+      <c r="B86" s="42"/>
+      <c r="C86" s="43" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="29" t="s">
-        <v>220</v>
+      <c r="A87" s="41" t="s">
+        <v>208</v>
+      </c>
+      <c r="B87" s="42"/>
+      <c r="C87" s="43" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="33" t="s">
-        <v>221</v>
-      </c>
-      <c r="B88" s="40"/>
-      <c r="C88" s="41" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="33" t="s">
-        <v>225</v>
-      </c>
-      <c r="B89" s="40"/>
-      <c r="C89" s="41" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="28" t="s">
-        <v>227</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="28" t="s">
-        <v>228</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C91" s="41"/>
+      <c r="A88" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="B88" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C88" s="43"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C75" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C76" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C78" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C73" r:id="rId1" xr:uid="{52966DAE-9CF6-4713-AB9C-F62FC730CC98}"/>
+    <hyperlink ref="C74" r:id="rId2" xr:uid="{53A78587-0AFF-43FD-AB17-C431C89B4995}"/>
+    <hyperlink ref="C76" r:id="rId3" xr:uid="{3CECCB89-7B04-43DA-A25E-20D6F26340BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3717,7 +3639,7 @@
   </sheetPr>
   <dimension ref="B2:Y21"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
@@ -3730,159 +3652,159 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="D2" s="47" t="s">
+      <c r="B2" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="4" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="20" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="20" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D8" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D9" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D10" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D11" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D12" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-    </row>
-    <row r="4" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="39" t="s">
-        <v>193</v>
-      </c>
-      <c r="D4" s="39" t="s">
+      <c r="F12" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D13" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="39" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="17" t="s">
+      <c r="F13" s="7" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="D14" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="45" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="18" t="s">
+      <c r="F14" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="D6" s="9" t="s">
+    </row>
+    <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D15" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="45" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="45" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D8" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D9" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D10" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D11" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D12" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D13" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="D14" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D15" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>214</v>
-      </c>
     </row>
     <row r="16" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D16" s="9" t="s">
-        <v>262</v>
+      <c r="D16" s="2" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="9" t="s">
-        <v>263</v>
+      <c r="D17" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D18" s="9" t="s">
-        <v>264</v>
+      <c r="D18" s="2" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D19" s="9" t="s">
-        <v>265</v>
+      <c r="D19" s="2" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D20" s="9" t="s">
-        <v>266</v>
+      <c r="D20" s="2" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="4:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D21" s="9" t="s">
-        <v>267</v>
+      <c r="D21" s="2" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
